--- a/10122024 mental health issues in obstetrics final final.xlsx
+++ b/10122024 mental health issues in obstetrics final final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6c467a58d4f3d38/Documents/CCCHR/AXA and Wellcome Trust/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://witshealth-my.sharepoint.com/personal/craig_parker_witsphr_org/Documents/PHR PC/Downloads/Joburg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A97A69FA-6D04-447B-919E-2A6BC645F008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{A97A69FA-6D04-447B-919E-2A6BC645F008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42C294A2-C949-43E7-8401-36601912A8DF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6C83F45B-F549-4B12-B38C-1187E4C6A749}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6C83F45B-F549-4B12-B38C-1187E4C6A749}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,18 +526,18 @@
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="22.90625" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -560,7 +560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -583,7 +583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <f>A2+1</f>
         <v>2</v>
@@ -607,7 +607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A30" si="0">A3+1</f>
         <v>3</v>
@@ -631,7 +631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -679,7 +679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -703,7 +703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -727,7 +727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -751,7 +751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -775,7 +775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -799,7 +799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -823,7 +823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -847,7 +847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -871,7 +871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -895,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -943,7 +943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -967,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -991,7 +991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1015,7 +1015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1039,7 +1039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1087,7 +1087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1111,7 +1111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1135,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1159,7 +1159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1183,7 +1183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1207,7 +1207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1231,7 +1231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
